--- a/Completed Projects/Dolmen City Family Area/VO/006- Variation order for Fire Pipe 75mm --- not sent with 1st bill.xlsx
+++ b/Completed Projects/Dolmen City Family Area/VO/006- Variation order for Fire Pipe 75mm --- not sent with 1st bill.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E03DF6-061F-4060-AF70-895DD289826E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9E0D98-3E9E-4500-A4CD-05FBBE9BABDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -789,7 +789,7 @@
   <dimension ref="A7:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Completed Projects/Dolmen City Family Area/VO/006- Variation order for Fire Pipe 75mm --- not sent with 1st bill.xlsx
+++ b/Completed Projects/Dolmen City Family Area/VO/006- Variation order for Fire Pipe 75mm --- not sent with 1st bill.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9E0D98-3E9E-4500-A4CD-05FBBE9BABDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484250A6-43E5-489A-AF1B-52E9C4057992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Note: Billling will be charged on actual measurement.</t>
   </si>
   <si>
-    <t>PES/DMC/006/02/24</t>
-  </si>
-  <si>
     <t>Supply and installation of M.S Fire Pipe  75mm</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Variation order for MS Pipe - Dolmen Family Area DMC Karachi</t>
+  </si>
+  <si>
+    <t>PES/DMC/006/08/24</t>
   </si>
 </sst>
 </file>
@@ -377,15 +377,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1607993</xdr:colOff>
+      <xdr:colOff>1642629</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38965</xdr:rowOff>
+      <xdr:rowOff>21646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>433590</xdr:colOff>
+      <xdr:colOff>468226</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>143740</xdr:rowOff>
+      <xdr:rowOff>126421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -415,7 +415,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1893743" y="38965"/>
+          <a:off x="1928379" y="21646"/>
           <a:ext cx="2462415" cy="1057275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -492,6 +492,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>121228</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>77932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>753342</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>174392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C816B245-2905-E4A4-4EE0-5A468DF55496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="121228" y="7923068"/>
+          <a:ext cx="6096000" cy="8668960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -788,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +844,7 @@
     <col min="4" max="4" width="8.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.140625" style="3" customWidth="1"/>
@@ -825,11 +869,11 @@
     <row r="19" spans="1:17" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20" s="32"/>
       <c r="J20" s="10">
-        <v>45339</v>
+        <v>45535</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -869,7 +913,7 @@
     </row>
     <row r="26" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -918,33 +962,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="7" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>1</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="C29" s="16">
+        <v>5233</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1800</v>
+      </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18">
         <f>SUM(C29+D29+E29)*20%</f>
-        <v>0</v>
+        <v>1406.6000000000001</v>
       </c>
       <c r="G29" s="17">
         <f>SUM(C29+D29+F29+E29)*7.5%</f>
-        <v>0</v>
+        <v>632.97</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I29" s="15">
         <v>15</v>
       </c>
       <c r="J29" s="16">
         <f>SUM(C29+D29+F29+G29+E29)*I29</f>
-        <v>0</v>
+        <v>136088.54999999999</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -961,7 +1009,7 @@
       <c r="I30" s="36"/>
       <c r="J30" s="30">
         <f>SUM(J29:J29)</f>
-        <v>0</v>
+        <v>136088.54999999999</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
